--- a/Documentation/Journaux/Evann-JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Evann-JournalDeTravail.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147CF23-78A3-463F-AD9F-E7770EA36ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>Date de début</t>
   </si>
@@ -43,280 +42,142 @@
     <t>Lieu</t>
   </si>
   <si>
-    <t>13h30</t>
-  </si>
-  <si>
-    <t>14h17</t>
-  </si>
-  <si>
-    <t>Création de la wireframe de la page d'accueil sur Balsamiq</t>
-  </si>
-  <si>
     <t>CPNV</t>
   </si>
   <si>
-    <t>14h25</t>
-  </si>
-  <si>
-    <t>14h28</t>
-  </si>
-  <si>
-    <t>Amélioration de la page du panier sur le wireframe</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Recherche de la ligne pour aller chercher les styles depuis une page</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>15h53</t>
-  </si>
-  <si>
-    <t>15h54</t>
-  </si>
-  <si>
-    <t>15h58</t>
-  </si>
-  <si>
-    <t>Recherche d'un menu pour le site.</t>
-  </si>
-  <si>
-    <t>14h45</t>
-  </si>
-  <si>
-    <t>Création du usecase .</t>
+    <t>13h51</t>
+  </si>
+  <si>
+    <t>16h05</t>
+  </si>
+  <si>
+    <t>15h20</t>
+  </si>
+  <si>
+    <t>15h05</t>
+  </si>
+  <si>
+    <t>13h40</t>
+  </si>
+  <si>
+    <t>Creation des fichiers de la base de donnée</t>
+  </si>
+  <si>
+    <t>13h50</t>
+  </si>
+  <si>
+    <t>Creation de la table items dans la base de donnée</t>
+  </si>
+  <si>
+    <t>Création du MCD</t>
+  </si>
+  <si>
+    <t>8h00</t>
+  </si>
+  <si>
+    <t>Créer toutes les tables du MCD</t>
+  </si>
+  <si>
+    <t>9h00</t>
+  </si>
+  <si>
+    <t>09h</t>
+  </si>
+  <si>
+    <t>Créer les relations entre les tables</t>
+  </si>
+  <si>
+    <t>09h25</t>
+  </si>
+  <si>
+    <t>9h26</t>
+  </si>
+  <si>
+    <t>Traduire le MCD en anglais</t>
+  </si>
+  <si>
+    <t>wordreference.com / João</t>
+  </si>
+  <si>
+    <t>9h32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15h30 </t>
   </si>
   <si>
     <t>16h00</t>
   </si>
   <si>
-    <t>16h01</t>
-  </si>
-  <si>
-    <t>Création de la navbar.</t>
+    <t>Terminer le MCD</t>
+  </si>
+  <si>
+    <t>Réorganisation des Usecases</t>
+  </si>
+  <si>
+    <t>16h55</t>
+  </si>
+  <si>
+    <t>13h36</t>
+  </si>
+  <si>
+    <t>Terminer les usecases et suppressions des fichiers inutiles</t>
+  </si>
+  <si>
+    <t>13h55</t>
+  </si>
+  <si>
+    <t>14h00</t>
+  </si>
+  <si>
+    <t>Traduction des usecases en anglais</t>
+  </si>
+  <si>
+    <t>14h20</t>
+  </si>
+  <si>
+    <t>Réorganisation du cahier des charges</t>
+  </si>
+  <si>
+    <t>Fin de la mise à jour du cahier des charges</t>
+  </si>
+  <si>
+    <t>8h48</t>
+  </si>
+  <si>
+    <t>Réajustement du CDC</t>
+  </si>
+  <si>
+    <t>traduction du CDC</t>
+  </si>
+  <si>
+    <t>Réussir à lancer le site</t>
+  </si>
+  <si>
+    <t>16h24</t>
+  </si>
+  <si>
+    <t>Coder le dispatcher</t>
+  </si>
+  <si>
+    <t>15h25</t>
   </si>
   <si>
     <t>16h50</t>
   </si>
   <si>
-    <t>14h47</t>
-  </si>
-  <si>
-    <t>Avancement de la navbar.</t>
-  </si>
-  <si>
-    <t>16h55</t>
-  </si>
-  <si>
-    <t>13h51</t>
-  </si>
-  <si>
-    <t>Création du login.</t>
-  </si>
-  <si>
-    <t>16h05</t>
-  </si>
-  <si>
-    <t>16h23</t>
-  </si>
-  <si>
-    <t>Création de la page où l'on peut créer un compte.</t>
-  </si>
-  <si>
-    <t>16h51</t>
-  </si>
-  <si>
-    <t>16h25</t>
-  </si>
-  <si>
-    <t>16h30</t>
-  </si>
-  <si>
-    <t>Liaison des styles avec les différentes pages</t>
-  </si>
-  <si>
-    <t>16h41</t>
-  </si>
-  <si>
-    <t>Recherche pour enregistrer les données d'un utilisateur</t>
-  </si>
-  <si>
-    <t>14h19</t>
-  </si>
-  <si>
-    <t>15h07</t>
-  </si>
-  <si>
-    <t>Réorganisation de l'ice scrum</t>
-  </si>
-  <si>
-    <t>15h20</t>
-  </si>
-  <si>
-    <t>Coder la page help</t>
-  </si>
-  <si>
-    <t>13h35</t>
-  </si>
-  <si>
-    <t>Continuer de coder la page help</t>
-  </si>
-  <si>
-    <t>14h57</t>
-  </si>
-  <si>
-    <t>15h33</t>
-  </si>
-  <si>
-    <t>Corriger le bouton signaler de la page help</t>
-  </si>
-  <si>
-    <t>15h50</t>
-  </si>
-  <si>
-    <t>15h55</t>
-  </si>
-  <si>
-    <t>Création du fichier de récupération des données de la page help</t>
-  </si>
-  <si>
-    <t>15h57</t>
-  </si>
-  <si>
-    <t>Coder les fonctions permettant de traiter les informatinons de la helpPage</t>
-  </si>
-  <si>
-    <t>16h10</t>
-  </si>
-  <si>
-    <t>Début de compréension du csv file avec le prof</t>
-  </si>
-  <si>
-    <t>Meylan</t>
-  </si>
-  <si>
-    <t>14h34</t>
-  </si>
-  <si>
-    <t>Update de l'icescrum</t>
-  </si>
-  <si>
-    <t>14h40</t>
-  </si>
-  <si>
-    <t>14h41</t>
-  </si>
-  <si>
-    <t>Continuer à comprendre comment utilliser un fichier csv</t>
-  </si>
-  <si>
-    <t>15h05</t>
-  </si>
-  <si>
-    <t>15h32</t>
-  </si>
-  <si>
-    <t>Coder le code qui permet de récupérer les données de la page help</t>
-  </si>
-  <si>
-    <t>13h40</t>
-  </si>
-  <si>
-    <t>14h10</t>
-  </si>
-  <si>
-    <t>Créer la fonction qui permet de retourner à la page d'accueil après envoi du formulaire</t>
-  </si>
-  <si>
-    <t>14h15</t>
-  </si>
-  <si>
-    <t>Créer et écrire les données des souris dans un fichier csv</t>
-  </si>
-  <si>
-    <t>15h35</t>
-  </si>
-  <si>
-    <t>15h36</t>
-  </si>
-  <si>
-    <t>16h40</t>
-  </si>
-  <si>
-    <t>Debug de helppage et réorganisation de la place des fichiers</t>
-  </si>
-  <si>
-    <t>16h45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Continuer à créer et écrire les données des souris dans un fichier csv </t>
-  </si>
-  <si>
-    <t>20h05</t>
-  </si>
-  <si>
-    <t>20h55</t>
-  </si>
-  <si>
-    <t>Finir d'écrire le fichier csv pour les produits</t>
-  </si>
-  <si>
-    <t>Maison</t>
-  </si>
-  <si>
-    <t>9h55</t>
-  </si>
-  <si>
-    <t>10h19</t>
-  </si>
-  <si>
-    <t>Finir d'ajouter et mettre au bon endroit les fichiers des produits et le imaes</t>
-  </si>
-  <si>
-    <t>14h00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15h00 </t>
-  </si>
-  <si>
-    <t>Début de la page des produits</t>
-  </si>
-  <si>
-    <t>19h00</t>
-  </si>
-  <si>
-    <t>Avancement dans la page items pour pouvoir afficher les produits</t>
-  </si>
-  <si>
-    <t>14h20</t>
-  </si>
-  <si>
-    <t>Avancement dans le css.</t>
-  </si>
-  <si>
-    <t>20h15</t>
-  </si>
-  <si>
-    <t>Analyse de la page cart pour pouvoir faire le css</t>
-  </si>
-  <si>
-    <t>19h04</t>
-  </si>
-  <si>
-    <t>19h20</t>
-  </si>
-  <si>
-    <t>Finir le css de la page cart</t>
+    <t>Continuer à coder le dispatcher</t>
+  </si>
+  <si>
+    <t>Adapter la page help</t>
+  </si>
+  <si>
+    <t>14h05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh/mm&quot; h&quot;;@"/>
   </numFmts>
@@ -402,16 +263,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:G40" totalsRowShown="0">
-  <autoFilter ref="A1:G40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G40" totalsRowShown="0">
+  <autoFilter ref="A1:G40"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date de début" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date de fin" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Heure de début" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Heure de fin" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="VIP" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Lieu" dataDxfId="0"/>
+    <tableColumn id="1" name="Date de début" dataDxfId="6"/>
+    <tableColumn id="2" name="Date de fin" dataDxfId="5"/>
+    <tableColumn id="3" name="Heure de début" dataDxfId="4"/>
+    <tableColumn id="4" name="Heure de fin" dataDxfId="3"/>
+    <tableColumn id="5" name="Description" dataDxfId="2"/>
+    <tableColumn id="6" name="VIP" dataDxfId="1"/>
+    <tableColumn id="7" name="Lieu" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +554,7 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -722,704 +583,518 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44959</v>
+        <v>45043</v>
       </c>
       <c r="B2" s="3">
-        <v>44959</v>
+        <v>45043</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44959</v>
+        <v>45043</v>
       </c>
       <c r="B3" s="3">
-        <v>44959</v>
+        <v>45043</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44966</v>
+        <v>45043</v>
       </c>
       <c r="B4" s="3">
-        <v>44966</v>
+        <v>45043</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44966</v>
+        <v>45047</v>
       </c>
       <c r="B5" s="3">
-        <v>44966</v>
+        <v>45047</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44979</v>
+        <v>45047</v>
       </c>
       <c r="B6" s="3">
-        <v>44979</v>
+        <v>45047</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44979</v>
+        <v>45047</v>
       </c>
       <c r="B7" s="3">
-        <v>44979</v>
+        <v>45047</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44986</v>
+        <v>45049</v>
       </c>
       <c r="B8" s="3">
-        <v>44986</v>
+        <v>45049</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44987</v>
+        <v>45049</v>
       </c>
       <c r="B9" s="3">
-        <v>44987</v>
+        <v>45049</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44987</v>
+        <v>45050</v>
       </c>
       <c r="B10" s="3">
-        <v>44987</v>
+        <v>45050</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44992</v>
+        <v>45050</v>
       </c>
       <c r="B11" s="3">
-        <v>44992</v>
+        <v>45050</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44992</v>
+        <v>45050</v>
       </c>
       <c r="B12" s="3">
-        <v>44992</v>
+        <v>45050</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44993</v>
+        <v>45054</v>
       </c>
       <c r="B13" s="3">
-        <v>44993</v>
+        <v>45054</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44993</v>
+        <v>45056</v>
       </c>
       <c r="B14" s="3">
-        <v>44993</v>
+        <v>45056</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44994</v>
+        <v>45063</v>
       </c>
       <c r="B15" s="3">
-        <v>44994</v>
+        <v>45063</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45000</v>
+        <v>45070</v>
       </c>
       <c r="B16" s="3">
-        <v>45000</v>
+        <v>45070</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45000</v>
+        <v>45071</v>
       </c>
       <c r="B17" s="3">
-        <v>45000</v>
+        <v>45071</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45000</v>
+        <v>45071</v>
       </c>
       <c r="B18" s="3">
-        <v>45000</v>
+        <v>45071</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45006</v>
+        <v>45078</v>
       </c>
       <c r="B19" s="3">
-        <v>45006</v>
+        <v>45078</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>45007</v>
-      </c>
-      <c r="B20" s="3">
-        <v>45007</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>45007</v>
-      </c>
-      <c r="B21" s="3">
-        <v>45007</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>45007</v>
-      </c>
-      <c r="B22" s="3">
-        <v>45007</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>45008</v>
-      </c>
-      <c r="B23" s="3">
-        <v>45008</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>45008</v>
-      </c>
-      <c r="B24" s="3">
-        <v>45008</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>45008</v>
-      </c>
-      <c r="B25" s="3">
-        <v>45008</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>45008</v>
-      </c>
-      <c r="B26" s="3">
-        <v>45008</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>45008</v>
-      </c>
-      <c r="B27" s="3">
-        <v>45008</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>45009</v>
-      </c>
-      <c r="B28" s="3">
-        <v>45009</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>45011</v>
-      </c>
-      <c r="B29" s="3">
-        <v>45011</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>45011</v>
-      </c>
-      <c r="B30" s="3">
-        <v>45011</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>45014</v>
-      </c>
-      <c r="B31" s="3">
-        <v>45014</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>45015</v>
-      </c>
-      <c r="B32" s="3">
-        <v>45015</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>45018</v>
-      </c>
-      <c r="B33" s="3">
-        <v>45018</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>45019</v>
-      </c>
-      <c r="B34" s="3">
-        <v>45019</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>

--- a/Documentation/Journaux/Evann-JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Evann-JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Date de début</t>
   </si>
@@ -172,6 +172,33 @@
   </si>
   <si>
     <t>14h05</t>
+  </si>
+  <si>
+    <t>14h25</t>
+  </si>
+  <si>
+    <t>14h26</t>
+  </si>
+  <si>
+    <t>Changer le lien de la page login vers signin</t>
+  </si>
+  <si>
+    <t>8H14</t>
+  </si>
+  <si>
+    <t>8H16</t>
+  </si>
+  <si>
+    <t>Faire les dernières petites modifications de la page cart</t>
+  </si>
+  <si>
+    <t>Réussir a connecter la base de donnée et afficher les produits avec João et Alex</t>
+  </si>
+  <si>
+    <t>João, Alex</t>
+  </si>
+  <si>
+    <t>Réussir a écrire le message que l'utilisateur envoie dans la base de donnée sur la page help</t>
   </si>
 </sst>
 </file>
@@ -544,7 +571,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +580,7 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" customWidth="1"/>
+    <col min="5" max="5" width="82.85546875" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
@@ -962,40 +989,90 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45078</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="3">
+        <v>45082</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45082</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="3">
+        <v>45084</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45084</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="3">
+        <v>45085</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45085</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>

--- a/Documentation/Journaux/Evann-JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Evann-JournalDeTravail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>Date de début</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Réussir a écrire le message que l'utilisateur envoie dans la base de donnée sur la page help</t>
+  </si>
+  <si>
+    <t>15h40</t>
+  </si>
+  <si>
+    <t>Continuer à coder la help page</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,13 +1081,25 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="3">
+        <v>45091</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45091</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
